--- a/hypatia/examples/Planning_2Regions/parameters/parameters_connections.xlsx
+++ b/hypatia/examples/Planning_2Regions/parameters/parameters_connections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10530003_polimi_it/Documents/Documenti/GitHub/Hypatia-SESAM/hypatia/examples/Planning_teaching/parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10776907_polimi_it/Documents/Documenti/GitHub/Hypatia-polimi/hypatia/examples/Planning_2Regions/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_92295E8662698944CF86836BC3D81F93A9CF84B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E2F755-A615-4836-8D06-82A83BA7B74F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_92295E8662698944CF86836BC3D81F93A9CF84B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA14C7E-E177-46DE-BB52-8360500FA2E1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F_OM" sheetId="1" r:id="rId1"/>
@@ -195,6 +195,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -544,11 +545,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +567,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,12 +590,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -658,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -842,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -911,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -934,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1316,9 +1322,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1337,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1354,12 +1360,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1396,9 +1402,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1417,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1434,12 +1440,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1476,9 +1482,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1497,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1514,12 +1520,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1634,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2246,9 +2252,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2267,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2284,12 +2290,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2841,7 +2847,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -3016,9 +3022,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3031,7 +3037,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3054,12 +3060,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3588,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -3657,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -3788,9 +3794,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3803,7 +3809,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3826,12 +3832,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -3868,9 +3874,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +3889,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3906,12 +3912,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -4532,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -4578,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -4636,13 +4642,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4655,7 +4661,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4678,12 +4684,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -4844,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -4867,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -4982,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -5028,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -5166,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -5212,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -5235,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -5258,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -5304,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -5350,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -5412,9 +5418,9 @@
       <selection activeCell="G4" sqref="G4:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5427,7 +5433,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5450,12 +5456,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -5478,7 +5484,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -5547,7 +5553,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -5961,7 +5967,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -6007,7 +6013,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -6053,7 +6059,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>1.315E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -6184,9 +6190,9 @@
       <selection activeCell="G4" sqref="G4:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6199,7 +6205,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6222,12 +6228,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6296,7 +6302,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -6342,7 +6348,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -6434,7 +6440,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -6457,7 +6463,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -6549,7 +6555,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -6618,7 +6624,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -6641,7 +6647,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -6664,7 +6670,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -6687,7 +6693,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -6733,7 +6739,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -6756,7 +6762,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -6779,7 +6785,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -6894,7 +6900,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -6956,9 +6962,9 @@
       <selection activeCell="G4" sqref="G4:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6971,7 +6977,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6994,12 +7000,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -7022,7 +7028,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -7045,7 +7051,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -7068,7 +7074,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -7114,7 +7120,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -7137,7 +7143,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -7183,7 +7189,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -7206,7 +7212,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -7229,7 +7235,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -7252,7 +7258,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -7321,7 +7327,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -7390,7 +7396,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -7459,7 +7465,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7482,7 +7488,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -7574,7 +7580,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -7597,7 +7603,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -7643,7 +7649,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -7666,7 +7672,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -7728,9 +7734,9 @@
       <selection activeCell="G4" sqref="G4:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7743,7 +7749,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7766,12 +7772,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -7794,7 +7800,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -7817,7 +7823,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -7840,7 +7846,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -7886,7 +7892,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -7909,7 +7915,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -8001,7 +8007,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -8024,7 +8030,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -8047,7 +8053,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -8070,7 +8076,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -8093,7 +8099,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -8116,7 +8122,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -8139,7 +8145,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -8162,7 +8168,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -8185,7 +8191,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -8208,7 +8214,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -8254,7 +8260,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -8277,7 +8283,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -8300,7 +8306,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -8323,7 +8329,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -8346,7 +8352,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -8369,7 +8375,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -8415,7 +8421,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -8438,7 +8444,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -8461,7 +8467,7 @@
         <v>124.77</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -8498,9 +8504,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8513,7 +8519,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8536,12 +8542,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -8633,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -8679,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -8702,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -8725,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -8771,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -8794,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -8817,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -8840,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -8863,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -8886,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -8955,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -8978,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -9001,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -9047,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -9070,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -9093,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9116,7 +9122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -9139,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -9162,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -9185,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -9208,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -9231,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -9268,9 +9274,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9283,7 +9289,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9306,12 +9312,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -9380,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -9403,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -9426,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -9449,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -9472,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -9495,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -9518,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -9564,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -9587,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -9610,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -9633,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -9656,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -9679,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -9702,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -9725,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -9748,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -9771,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9794,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -9817,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -9840,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -9863,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9886,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -9909,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -9932,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -9955,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -9978,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -10001,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -10040,9 +10046,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10055,7 +10061,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -10078,12 +10084,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -10122,9 +10128,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10137,7 +10143,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -10160,12 +10166,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -10449,9 +10455,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362B819E-0024-4B0B-ACB7-796FEC865E82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362B819E-0024-4B0B-ACB7-796FEC865E82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
+    <ds:schemaRef ds:uri="e67e9a88-35e1-4b39-8da9-a609eb308282"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148490FD-B3B3-4423-BD45-D0B0893FE1B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148490FD-B3B3-4423-BD45-D0B0893FE1B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>